--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44128858-68A4-1E47-B848-4807C65694F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9D9A1-F815-CB47-8F56-B8F16B571872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -118,12 +118,33 @@
   <si>
     <t>linear space/time complexity compared to O(31)</t>
   </si>
+  <si>
+    <t>1207.Unique Number Of Occurences</t>
+  </si>
+  <si>
+    <t>2591. Distribute Money To Maximum Children</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>2594. Minimum Time to Repair Cars</t>
+  </si>
+  <si>
+    <t>2595. Number of Even and Odd Bits</t>
+  </si>
+  <si>
+    <t>442. Find All Duplicates in an Array</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,8 +178,15 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +209,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -191,23 +225,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -519,16 +559,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="56.1640625" customWidth="1"/>
     <col min="6" max="6" width="57.33203125" customWidth="1"/>
@@ -566,7 +606,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
@@ -586,7 +626,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
@@ -606,7 +646,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -626,7 +666,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
@@ -634,6 +674,57 @@
       </c>
       <c r="G6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9D9A1-F815-CB47-8F56-B8F16B571872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0CDE3-0C75-A14C-91AF-E1D1FB31B0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -139,12 +139,45 @@
   <si>
     <t>1. Two Sum</t>
   </si>
+  <si>
+    <t>counting sort</t>
+  </si>
+  <si>
+    <t>hashmaps and sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(n) space and time complexity </t>
+  </si>
+  <si>
+    <t>brute force is the way here</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>use binary search 0 - largest input posssible(10^14) then check for calculated value</t>
+  </si>
+  <si>
+    <t>O(14nlog10) complexity compared to O(n!) or O(n)</t>
+  </si>
+  <si>
+    <t>use permutations and iterate through each rank</t>
+  </si>
+  <si>
+    <t>reverse it and check for even or odd places for each bit and store in countEven and Count Odd</t>
+  </si>
+  <si>
+    <t>O(1) T.C</t>
+  </si>
+  <si>
+    <t>run a while loop and use vec.push_back() every iteration and return vector</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,8 +218,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +256,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,26 +276,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="7" builtinId="51"/>
+    <cellStyle name="Check Cell" xfId="6" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -570,9 +644,9 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="56.1640625" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" customWidth="1"/>
+    <col min="5" max="5" width="61.83203125" customWidth="1"/>
+    <col min="6" max="6" width="76" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -656,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -676,39 +750,84 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0CDE3-0C75-A14C-91AF-E1D1FB31B0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F734935-7E10-F643-A689-2D2A1611CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -171,6 +171,66 @@
   </si>
   <si>
     <t>run a while loop and use vec.push_back() every iteration and return vector</t>
+  </si>
+  <si>
+    <t>run a loop and check for nums[i] - target</t>
+  </si>
+  <si>
+    <t>use a hashmap</t>
+  </si>
+  <si>
+    <t>O(n) compared to O(n2)</t>
+  </si>
+  <si>
+    <t>run a loop for each element</t>
+  </si>
+  <si>
+    <t>sliding window + binary Search</t>
+  </si>
+  <si>
+    <t>852. Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>linearly scan and compare current element with next element</t>
+  </si>
+  <si>
+    <t>use binary search to reduce comparisions</t>
+  </si>
+  <si>
+    <t>time complexity of O(logn)</t>
+  </si>
+  <si>
+    <t>69. Sqrt(x)</t>
+  </si>
+  <si>
+    <t>linearly scan and check for each if i*I == x</t>
+  </si>
+  <si>
+    <t>use binary search from 0 to x/2</t>
+  </si>
+  <si>
+    <t>162. Find Peak Element</t>
+  </si>
+  <si>
+    <t>28. First Occurrence in a String</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>704. Binary Search</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>I mean…</t>
   </si>
 </sst>
 </file>
@@ -227,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +307,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -292,32 +346,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
+  <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="7" builtinId="51"/>
-    <cellStyle name="Check Cell" xfId="6" builtinId="23"/>
+    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +807,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
@@ -763,7 +816,7 @@
       <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G7" t="s">
@@ -774,13 +827,13 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F8" t="s">
@@ -800,7 +853,7 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="s">
@@ -820,7 +873,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F10" t="s">
@@ -830,20 +883,132 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F734935-7E10-F643-A689-2D2A1611CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E429A-3646-024C-B421-E802944A355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>I mean…</t>
+  </si>
+  <si>
+    <t>2605. Form Smallest Number from Two Digit Arrays</t>
+  </si>
+  <si>
+    <t>compare every possible pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check frequency of each element, if more than 1, return it, else return min1*10 + min2 </t>
+  </si>
+  <si>
+    <t>time complexity  and space comp of O(1)</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -365,7 +377,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -686,16 +697,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="61.83203125" customWidth="1"/>
     <col min="6" max="6" width="76" customWidth="1"/>
@@ -1001,7 +1012,7 @@
       <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F17" t="s">
@@ -1009,6 +1020,26 @@
       </c>
       <c r="G17" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E429A-3646-024C-B421-E802944A355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE87C1-DCA1-3E46-8934-CB7F2D7B5CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>time complexity  and space comp of O(1)</t>
+  </si>
+  <si>
+    <t>217. Contains Duplicate</t>
+  </si>
+  <si>
+    <t>use hashmaps or maps and check count of each</t>
+  </si>
+  <si>
+    <t>linearly scan and compare each element with next element or generate pairs</t>
+  </si>
+  <si>
+    <t>0{n} for hashmap and O(nlogn) for mapsw</t>
   </si>
 </sst>
 </file>
@@ -697,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,6 +1054,26 @@
         <v>65</v>
       </c>
     </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE87C1-DCA1-3E46-8934-CB7F2D7B5CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBFE391-039A-8843-BAA4-D395D4E83179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -248,13 +248,70 @@
     <t>217. Contains Duplicate</t>
   </si>
   <si>
-    <t>use hashmaps or maps and check count of each</t>
-  </si>
-  <si>
     <t>linearly scan and compare each element with next element or generate pairs</t>
   </si>
   <si>
     <t>0{n} for hashmap and O(nlogn) for mapsw</t>
+  </si>
+  <si>
+    <t>use hashmaps or maps and check lenght of each</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>create temp array, and copy contents to arr1 then sort</t>
+  </si>
+  <si>
+    <t>use two pointers</t>
+  </si>
+  <si>
+    <t>no extra space will be used</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>use bubble sort alglorithm but this results in 2509ms (TLE)</t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>use temporary array and copy but uses extra space</t>
+  </si>
+  <si>
+    <t>revrese the entire array, then reverese upto k and then k to end</t>
+  </si>
+  <si>
+    <t>constant time</t>
+  </si>
+  <si>
+    <t>1491. Average salary excluding min and max</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>sort the array, take average of all except nums.begin and nums.end</t>
+  </si>
+  <si>
+    <t>beats 100%</t>
+  </si>
+  <si>
+    <t>1822. Sign of product of array</t>
+  </si>
+  <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>iterate over each character</t>
+  </si>
+  <si>
+    <t>iterate while start &lt; end and swap start and end, using two pointer approach</t>
+  </si>
+  <si>
+    <t>faster</t>
   </si>
 </sst>
 </file>
@@ -709,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,7 +931,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>38</v>
@@ -1065,13 +1122,130 @@
         <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>69</v>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBFE391-039A-8843-BAA4-D395D4E83179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3329D1D5-C2A7-1040-8019-44F3C14715CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>faster</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>use two pointers and string library functions to solve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write multiple functions that do the same thing but may not be efficient </t>
+  </si>
+  <si>
+    <t>string functions are optimised</t>
   </si>
 </sst>
 </file>
@@ -368,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +414,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -427,7 +445,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,8 +453,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -446,10 +465,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -766,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1248,6 +1269,26 @@
         <v>88</v>
       </c>
     </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3329D1D5-C2A7-1040-8019-44F3C14715CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0749A61-10F6-E845-A062-840C7C065C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -324,6 +324,33 @@
   </si>
   <si>
     <t>string functions are optimised</t>
+  </si>
+  <si>
+    <t>1910. Remove All Occurences of a substring</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>use loops and pointers to iterates the string finding the element</t>
+  </si>
+  <si>
+    <t>use stack OR inbuilt string functions</t>
+  </si>
+  <si>
+    <t>0(1) for stack, O(n) for functions</t>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>sort the two string  and compare them</t>
+  </si>
+  <si>
+    <t>use hashmap or simulate a hashmap using arrays, then compare the frequencies</t>
+  </si>
+  <si>
+    <t>0(n) compared to O(nlogn)</t>
   </si>
 </sst>
 </file>
@@ -787,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G26"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,6 +1316,46 @@
         <v>92</v>
       </c>
     </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0749A61-10F6-E845-A062-840C7C065C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92DC7C-F0C9-224D-BDA5-AF3C562F8F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -351,6 +351,45 @@
   </si>
   <si>
     <t>0(n) compared to O(nlogn)</t>
+  </si>
+  <si>
+    <t>49.Group Anagrams</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>use hashmap to put sorted counterparts then push back to answer vector (still n ot optimised)</t>
+  </si>
+  <si>
+    <t>iterate over each string and sort  each, then push to 2D array</t>
+  </si>
+  <si>
+    <t>O(m*nlogn) for brute, O(m*n) with hashmap</t>
+  </si>
+  <si>
+    <t>6901. Prime pairs with sum target</t>
+  </si>
+  <si>
+    <t>iterate to find primes, then iterate to find sum elements (TLE)</t>
+  </si>
+  <si>
+    <t>O(mlongn) to avoid 0(n2 * m2) TLE</t>
+  </si>
+  <si>
+    <t>can use hashmap but I used sieve of erathosthenes for primes, and binary search(recursive) for finding sum</t>
+  </si>
+  <si>
+    <t>74. Search in a 2D Matrix</t>
+  </si>
+  <si>
+    <t>use O(mn) solution with nested for loops iterating through each element</t>
+  </si>
+  <si>
+    <t>use binary search in 2D array</t>
+  </si>
+  <si>
+    <t>O(logmn)</t>
   </si>
 </sst>
 </file>
@@ -814,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,7 +865,7 @@
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="61.83203125" customWidth="1"/>
-    <col min="6" max="6" width="76" customWidth="1"/>
+    <col min="6" max="6" width="89.83203125" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
@@ -1356,6 +1395,66 @@
         <v>101</v>
       </c>
     </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/code/dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92DC7C-F0C9-224D-BDA5-AF3C562F8F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E68519-A15A-4240-BBFA-0D9E527D0FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A9967612-7DE7-E041-97E7-2A5551CC2CA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -391,12 +391,114 @@
   <si>
     <t>O(logmn)</t>
   </si>
+  <si>
+    <t>run a nested loop and check for nums[i] - target</t>
+  </si>
+  <si>
+    <t>4. Median Of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>use a hashmap to check if complement of an element exists (and not itself)</t>
+  </si>
+  <si>
+    <t>33. Search In A Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>linearly scan searching for the target</t>
+  </si>
+  <si>
+    <t>use binary search on the left and right side of the pivot</t>
+  </si>
+  <si>
+    <t>0(logn) time complexity</t>
+  </si>
+  <si>
+    <t>Arrays, BinaryS</t>
+  </si>
+  <si>
+    <t>48. Rotate Image</t>
+  </si>
+  <si>
+    <t>Arrays, Matrix</t>
+  </si>
+  <si>
+    <t>49. Group Anagrams</t>
+  </si>
+  <si>
+    <t>54. Spiral Matrix</t>
+  </si>
+  <si>
+    <t>74. Search In A 2D Matrix</t>
+  </si>
+  <si>
+    <t>Arrays, Matrix,  Binary Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use binary search with s = and e = and find mid by </t>
+  </si>
+  <si>
+    <t>81. Search In A Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>128. Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>nested loops to find max area</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t>Arrays, Two Pointers</t>
+  </si>
+  <si>
+    <t>Arrays, hashmap</t>
+  </si>
+  <si>
+    <t>run triple loop</t>
+  </si>
+  <si>
+    <t>use two pointers while updating the value to avoid duplicates to find sum = nums[i] + nums[s] + nums[e]</t>
+  </si>
+  <si>
+    <t>0(n2) time complexity compared to O(n3)</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>use double loops</t>
+  </si>
+  <si>
+    <t>use two pointers, i=1, j=1, if dup found inc j and return it.</t>
+  </si>
+  <si>
+    <t>169. Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be solved using binary search on each element to find comp </t>
+  </si>
+  <si>
+    <t>moving two pointers towards the center of array based on comparison of the current sum with the target.</t>
+  </si>
+  <si>
+    <t>0(n) TC compared to O(nlogn)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,8 +547,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,8 +602,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -510,8 +642,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -520,8 +667,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -532,11 +681,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="9" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -853,19 +1008,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45A93-0914-1344-81BB-E1D9A7E10E36}">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="61.83203125" customWidth="1"/>
-    <col min="6" max="6" width="89.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="65.1640625" customWidth="1"/>
+    <col min="6" max="6" width="91" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
@@ -1455,6 +1610,195 @@
         <v>114</v>
       </c>
     </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
